--- a/biology/Botanique/Ilex_integra/Ilex_integra.xlsx
+++ b/biology/Botanique/Ilex_integra/Ilex_integra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ilex integra, appelé communément houx à feuilles entières[1], est une espèce de plantes à fleurs du genre Ilex et de la famille des Aquifoliaceae.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ilex integra, appelé communément houx à feuilles entières, est une espèce de plantes à fleurs du genre Ilex et de la famille des Aquifoliaceae.
 </t>
         </is>
       </c>
@@ -511,14 +523,16 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ilex integra peut être un arbre qui atteint 6 mètres de haut[2], à feuilles persistantes.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ilex integra peut être un arbre qui atteint 6 mètres de haut, à feuilles persistantes.
 Son écorce grise est lisse. 
-Ses feuilles vert foncé et coriaces sont elliptiques avec des marges entières, atteignant 8 centimètres de long et 4,5 cm de large[2].
-Ses fleurs jaunes sont à quatre lobes, en forme de croix, jusqu'à 7 millimètres de diamètre et sont disposées en cymes[2]. 
-Son fruit est une drupe rouge, jusqu'à 12 mm de diamètre et persiste sur la plante pendant les mois d'hiver[2]. 
-Des plantes mâles et femelles doivent être plantées pour que les plantes femelles puissent produire des baies[2].
+Ses feuilles vert foncé et coriaces sont elliptiques avec des marges entières, atteignant 8 centimètres de long et 4,5 cm de large.
+Ses fleurs jaunes sont à quatre lobes, en forme de croix, jusqu'à 7 millimètres de diamètre et sont disposées en cymes. 
+Son fruit est une drupe rouge, jusqu'à 12 mm de diamètre et persiste sur la plante pendant les mois d'hiver. 
+Des plantes mâles et femelles doivent être plantées pour que les plantes femelles puissent produire des baies.
 </t>
         </is>
       </c>
@@ -547,11 +561,13 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ilex integra se trouve au Japon (Honshū, Shikoku, Kyushu[3]), dans le sud de la Chine[2], à Taïwan et en Corée[4].
-Dans son habitat naturel, des reliefs proches de la mer[3], il pousse dans les fourrés et les bois[2].
-Ilex integra vient d'un climat tempéré[4]. Il préfère les sols humides, fertiles et bien drainés ; il n'aime pas les sols humides[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ilex integra se trouve au Japon (Honshū, Shikoku, Kyushu), dans le sud de la Chine, à Taïwan et en Corée.
+Dans son habitat naturel, des reliefs proches de la mer, il pousse dans les fourrés et les bois.
+Ilex integra vient d'un climat tempéré. Il préfère les sols humides, fertiles et bien drainés ; il n'aime pas les sols humides.
 </t>
         </is>
       </c>
@@ -580,9 +596,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ilex integra servait pour la chasse à la glu[3]. Il est aujourd'hui une plante ornementale[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ilex integra servait pour la chasse à la glu. Il est aujourd'hui une plante ornementale.
 </t>
         </is>
       </c>
